--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value765.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value765.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9998859659930396</v>
+        <v>15</v>
       </c>
       <c r="B1">
-        <v>2.722631739784283</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>4.328804381900919</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.205537873605276</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.208887261988819</v>
+        <v>0.952394962310791</v>
       </c>
     </row>
   </sheetData>
